--- a/Data/estoque_limpo.xlsx
+++ b/Data/estoque_limpo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>SKU</t>
   </si>
@@ -100,6 +100,9 @@
     <t>Teste3</t>
   </si>
   <si>
+    <t>RGSEX</t>
+  </si>
+  <si>
     <t xml:space="preserve">TOMADA 16A </t>
   </si>
   <si>
@@ -167,6 +170,9 @@
   </si>
   <si>
     <t>Bora testar</t>
+  </si>
+  <si>
+    <t>Sexual</t>
   </si>
 </sst>
 </file>
@@ -524,7 +530,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -552,7 +558,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -569,7 +575,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -586,7 +592,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -603,7 +609,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -620,7 +626,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -637,7 +643,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -654,7 +660,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -671,7 +677,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -688,7 +694,7 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -705,7 +711,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C11">
         <v>4</v>
@@ -722,7 +728,7 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -739,7 +745,7 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -756,7 +762,7 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -773,7 +779,7 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C15">
         <v>40</v>
@@ -790,7 +796,7 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -807,7 +813,7 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -824,7 +830,7 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C18">
         <v>20</v>
@@ -841,7 +847,7 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -858,7 +864,7 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -875,7 +881,7 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C21">
         <v>10</v>
@@ -892,7 +898,7 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C22">
         <v>1200</v>
@@ -909,7 +915,7 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C23">
         <v>500</v>
@@ -926,7 +932,7 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C24">
         <v>150</v>
@@ -936,6 +942,23 @@
       </c>
       <c r="E24">
         <v>5325</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25">
+        <v>50</v>
+      </c>
+      <c r="D25">
+        <v>12.5</v>
+      </c>
+      <c r="E25">
+        <v>625</v>
       </c>
     </row>
   </sheetData>

--- a/Data/estoque_limpo.xlsx
+++ b/Data/estoque_limpo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>SKU</t>
   </si>
@@ -100,9 +100,6 @@
     <t>Teste3</t>
   </si>
   <si>
-    <t>RGSEX</t>
-  </si>
-  <si>
     <t xml:space="preserve">TOMADA 16A </t>
   </si>
   <si>
@@ -170,9 +167,6 @@
   </si>
   <si>
     <t>Bora testar</t>
-  </si>
-  <si>
-    <t>Sexual</t>
   </si>
 </sst>
 </file>
@@ -530,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -558,7 +552,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -575,7 +569,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -592,7 +586,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -609,7 +603,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -626,7 +620,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -643,7 +637,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -660,7 +654,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -677,7 +671,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -694,7 +688,7 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -711,7 +705,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11">
         <v>4</v>
@@ -728,7 +722,7 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -745,7 +739,7 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -762,7 +756,7 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -779,7 +773,7 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15">
         <v>40</v>
@@ -796,7 +790,7 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -813,7 +807,7 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -830,7 +824,7 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C18">
         <v>20</v>
@@ -847,7 +841,7 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -864,7 +858,7 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -881,7 +875,7 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C21">
         <v>10</v>
@@ -898,7 +892,7 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C22">
         <v>1200</v>
@@ -915,7 +909,7 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C23">
         <v>500</v>
@@ -932,7 +926,7 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C24">
         <v>150</v>
@@ -942,23 +936,6 @@
       </c>
       <c r="E24">
         <v>5325</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25">
-        <v>50</v>
-      </c>
-      <c r="D25">
-        <v>12.5</v>
-      </c>
-      <c r="E25">
-        <v>625</v>
       </c>
     </row>
   </sheetData>
